--- a/Sound/3조_DID_사운드정리.xlsx
+++ b/Sound/3조_DID_사운드정리.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Team3Resource\Sounds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M\Desktop\3조\Sound\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96694EC8-6EEC-4093-A89F-ACF58E060353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3D7152-6A20-4735-8CD9-1AE38DD48134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15825" yWindow="0" windowWidth="13080" windowHeight="15585" xr2:uid="{F01E65A7-9F96-4740-A68D-BB54CB1432ED}"/>
+    <workbookView xWindow="12825" yWindow="0" windowWidth="16080" windowHeight="15585" xr2:uid="{F01E65A7-9F96-4740-A68D-BB54CB1432ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="102">
   <si>
     <t>사운드 정리</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,14 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시작 부분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새소리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>어두운, 기괴한
  느낌의 배경음</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -436,6 +428,25 @@
   </si>
   <si>
     <t>그어억 이하 추적 동문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인트로 배경음과 동일</t>
+  </si>
+  <si>
+    <t>인트로 배경음과 동일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경음 동일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인트로 폴더에 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intro&amp;Ending BGM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,7 +471,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,6 +481,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,7 +671,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -658,9 +681,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -676,12 +696,42 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -695,45 +745,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1072,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EF6CF6-AB9D-8B40-8154-A9A84ACDEC93}">
   <dimension ref="B2:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1090,17 +1146,17 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1109,299 +1165,303 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="27"/>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="1"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="4"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="3"/>
+      <c r="H5" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="27"/>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="1"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="32" t="s">
+        <v>97</v>
+      </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="23" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="1"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="27"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="1"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="27"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="27"/>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="20"/>
+      <c r="F10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="1" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="1" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="1" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="1" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="1" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="10" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="20"/>
+      <c r="F17" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="37" t="s">
+        <v>99</v>
+      </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="1" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="1" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="39"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="1" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="32" t="s">
+        <v>98</v>
+      </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="1" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="33"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="1" t="s">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="1" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="33"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="1" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="33"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="1" t="s">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="33"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="1" t="s">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="34"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="1" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
     <row r="30" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="25" t="s">
         <v>51</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
       <c r="G30" s="1" t="s">
         <v>5</v>
       </c>
@@ -1410,110 +1470,110 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="20"/>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="25"/>
+      <c r="C31" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
       <c r="G31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="20"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="18"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="17"/>
       <c r="G32" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="20"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9" t="s">
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
       <c r="G33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="20"/>
-      <c r="C34" s="9" t="s">
+      <c r="B34" s="25"/>
+      <c r="C34" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="19"/>
+      <c r="F34" s="27"/>
       <c r="G34" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="20"/>
-      <c r="C35" s="9"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
       <c r="D35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="19"/>
+      <c r="F35" s="27"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="20"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9" t="s">
+      <c r="B36" s="25"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F36" s="19"/>
+      <c r="F36" s="27"/>
       <c r="G36" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="20"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="20"/>
-      <c r="C38" s="9" t="s">
+      <c r="B38" s="25"/>
+      <c r="C38" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="6" t="s">
+      <c r="E38" s="20"/>
+      <c r="F38" s="5" t="s">
         <v>43</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -1522,219 +1582,219 @@
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="20"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="6" t="s">
+      <c r="B39" s="25"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="20"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="6" t="s">
-        <v>93</v>
+      <c r="B40" s="25"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="20"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="21" t="s">
+      <c r="B41" s="25"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="14" t="s">
         <v>36</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="20"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="9" t="s">
+      <c r="B42" s="25"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="20"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="6" t="s">
+      <c r="B43" s="25"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="2:8" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="B44" s="25"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="2:8" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="B44" s="20"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="20"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="6" t="s">
+      <c r="B45" s="25"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="20"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="9" t="s">
+      <c r="B46" s="25"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="2:8" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="B47" s="20"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="7" t="s">
+      <c r="B47" s="25"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="20"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="9" t="s">
+      <c r="B48" s="25"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="20"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="6" t="s">
+      <c r="B49" s="25"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="20"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="9" t="s">
+      <c r="B50" s="25"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="20"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="6" t="s">
+      <c r="B51" s="25"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="5" t="s">
         <v>46</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="20"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="21" t="s">
+      <c r="B52" s="25"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F52" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="2:8" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="B53" s="20"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="7" t="s">
-        <v>72</v>
+      <c r="B53" s="25"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="20"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="7" t="s">
-        <v>73</v>
+      <c r="B54" s="25"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="20"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9" t="s">
+      <c r="B55" s="25"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26" t="s">
         <v>48</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -1745,319 +1805,324 @@
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="20"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9" t="s">
+      <c r="B56" s="25"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F56" s="6" t="s">
-        <v>58</v>
+      <c r="F56" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="20"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="6" t="s">
-        <v>59</v>
+      <c r="B57" s="25"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="20"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="21" t="s">
+      <c r="B58" s="25"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="6" t="s">
-        <v>67</v>
+      <c r="F58" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="20"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="6" t="s">
-        <v>80</v>
+      <c r="B59" s="25"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="20"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
       <c r="E60" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="6" t="s">
-        <v>79</v>
+      <c r="F60" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="20"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
       <c r="E61" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F61" s="6" t="s">
-        <v>81</v>
+      <c r="F61" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="20"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="21" t="s">
+      <c r="B62" s="25"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F62" s="6" t="s">
-        <v>82</v>
+      <c r="F62" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="20"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="6" t="s">
-        <v>83</v>
+      <c r="B63" s="25"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="20"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
       <c r="E64" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F64" s="6" t="s">
-        <v>71</v>
+      <c r="F64" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="20"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9" t="s">
+      <c r="B65" s="25"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E65" s="9"/>
+      <c r="E65" s="26"/>
       <c r="F65" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G65" s="8" t="s">
+      <c r="G65" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B66" s="25"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67" s="25"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B66" s="20"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" s="8" t="s">
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B68" s="25"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B67" s="20"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="8" t="s">
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B69" s="25"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H67" s="1"/>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B68" s="20"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B69" s="20"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B70" s="20"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="21" t="s">
+      <c r="B70" s="25"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G70" s="8" t="s">
+      <c r="G70" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B71" s="25"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B72" s="25"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H70" s="1"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B71" s="20"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H71" s="1"/>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B72" s="20"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>90</v>
-      </c>
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B73" s="20"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="8" t="s">
-        <v>86</v>
+      <c r="B73" s="25"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B74" s="20"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
       <c r="F74" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G74" s="8" t="s">
-        <v>84</v>
+      <c r="G74" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B75" s="20"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26"/>
       <c r="F75" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G75" s="8" t="s">
-        <v>85</v>
+      <c r="G75" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B76" s="20"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
       <c r="F76" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G76" s="8" t="s">
-        <v>86</v>
+      <c r="G76" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B77" s="20"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
       <c r="F77" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G77" s="8" t="s">
-        <v>60</v>
+      <c r="G77" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B78" s="20"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
       <c r="F78" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G78" s="8" t="s">
-        <v>61</v>
+      <c r="G78" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="20"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
       <c r="F79" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G79" s="8" t="s">
-        <v>87</v>
+      <c r="G79" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="H79" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="B3:B27"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C10:C27"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D17:E27"/>
-    <mergeCell ref="D10:E16"/>
+  <mergeCells count="45">
+    <mergeCell ref="G20:G26"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:E40"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C38:C79"/>
+    <mergeCell ref="D65:E79"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="D41:D54"/>
     <mergeCell ref="B30:B79"/>
     <mergeCell ref="F70:F71"/>
     <mergeCell ref="F72:F73"/>
@@ -2074,20 +2139,18 @@
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="E56:E57"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D38:E40"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C38:C79"/>
-    <mergeCell ref="D65:E79"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="D41:D54"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B3:B27"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C10:C27"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D17:E27"/>
+    <mergeCell ref="D10:E16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
